--- a/instructions/experiment.xlsx
+++ b/instructions/experiment.xlsx
@@ -41,8 +41,11 @@
 </t>
   </si>
   <si>
+    <t>instructions_message_end</t>
+  </si>
+  <si>
     <t xml:space="preserve">                                      ISTRUZIONI
-Leggerete degli argomenti composti da due premesse (P1 e P2) e una conclusione (C). Alle premesse manca un termine. Giudicate poi se la conclusione segue dalle premesse, rispondendo:
+Leggerete degli argomenti composti da due premesse (P1 e P2) e una conclusione (C). Ad ogni argomento manca un solo termine, comune alle due premesse. Dopo aver letto attentamente l'argomento, premete la barra spaziatrice per conoscere il termine mancante. Giudicate poi se la conclusione segue dalle premesse, rispondendo:
                      SI (La conclusione segue dalle premesse) 
                                                  ↓
                                    premete sul tasto [q] 
@@ -50,14 +53,11 @@
                 NO (La conclusione NON segue dalle premesse) 
                                                  ↓
                                    premete sul tasto [+] 
-Dovrete rispondere il più precisamente e il più velocemente possibile.</t>
-  </si>
-  <si>
-    <t>instructions_message_end</t>
+Dovrete rispondere alla domanda il più precisamente e il più velocemente possibile.</t>
   </si>
   <si>
     <t xml:space="preserve">
-Premete sulla barra spaziatrice per leggere gli argomenti.</t>
+Premere la barra spaziatrice per leggere gli argomenti</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="359" customHeight="1">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -504,7 +504,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
